--- a/相关资料/测试系统精度/精度曲线.xlsx
+++ b/相关资料/测试系统精度/精度曲线.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -249,7 +249,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -262,7 +262,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
               <a:t>通过型架监测系统恢复姿态后的偏差值</a:t>
             </a:r>
           </a:p>
@@ -281,7 +281,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -577,7 +577,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -618,7 +618,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
